--- a/data/trans_bre/P25_6-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_6-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,30 +620,40 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,92</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -642,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,58</t>
+          <t>0,0; 10,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,37</t>
+          <t>0,0; 12,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,74</t>
+          <t>0,0; 11,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,30 +720,40 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-1,66</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-7,56%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-12,05%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 0,0</t>
+          <t>-13,69; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 5,01</t>
+          <t>-9,65; 3,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 0,0</t>
+          <t>-12,3; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,99; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-27,16%</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-38,74%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-62,89%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -802,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,12</t>
+          <t>0,0; 3,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 1,26</t>
+          <t>0,0; 5,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 0,68</t>
+          <t>0,0; 5,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 6,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-80,6%</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-27,53%</t>
+          <t>-30,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,17%</t>
+          <t>246,65%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>58,06%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>274,77%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -0,88</t>
+          <t>-5,41; 2,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 2,76</t>
+          <t>-1,39; 7,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,96</t>
+          <t>-3,01; 6,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 9,17</t>
+          <t>-0,98; 8,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-90,02; 289,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-87,11; 337,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-7,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-8,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-53,41%</t>
+          <t>-12,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>-51,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-44,58%</t>
+          <t>-28,17%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-65,08%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-73,53%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 1,87</t>
+          <t>-26,18; 5,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 7,16</t>
+          <t>-11,94; 8,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 2,74</t>
+          <t>-25,53; 2,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-94,91; 48,87</t>
+          <t>-29,05; -1,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-65,92; 153,62</t>
+          <t>-100,0; 137,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-88,53; 66,99</t>
+          <t>-100,0; 278,02</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 41,34</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,58</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-18,77%</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-38,99%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>-5,18%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33,27%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-7,4%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 8,83</t>
+          <t>-18,62; 16,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 2,39</t>
+          <t>-18,69; 15,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 14,16</t>
+          <t>-12,12; 19,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,31; 58,35</t>
+          <t>-22,23; 17,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-70,48; 13,62</t>
+          <t>-65,65; 176,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,98; 116,51</t>
+          <t>-66,79; 157,57</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-64,62; 341,66</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-62,74; 119,57</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-35,23%</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-15,89%</t>
+          <t>-24,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-2,38%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,51</t>
+          <t>-5,87; 1,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 1,37</t>
+          <t>-2,58; 3,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 3,01</t>
+          <t>-3,72; 2,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-64,56; 14,41</t>
+          <t>-3,88; 4,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-49,28; 32,37</t>
+          <t>-70,96; 53,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-41,77; 85,49</t>
+          <t>-45,08; 116,06</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-57,85; 108,72</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-44,42; 101,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25_6-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_6-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,44 +627,36 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,92</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>1.99178539464511</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.847155208983049</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.106965141365336</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.847879428840264</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -663,254 +664,138 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,62</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,58</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,35</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,37</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.575849261573714</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.10324325505009</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.370010559710192</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.08184972432123</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,05</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,66</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-12,05%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-13,69; 0,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,65; 3,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,3; 0,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,99; 0,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-5.679292264907917</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.780900731020334</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.984330517926615</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.081956344063106</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.4380712210629981</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-30.08323676412989</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.50267167659238</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-16.87157422524876</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-13.45267326582232</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,7</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,7</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 6,93</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.600480039961656</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,44 +803,36 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-30,54%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>246,65%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>58,06%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>274,77%</t>
+      <c r="C10" s="5" t="n">
+        <v>0.7903979877028215</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.9068543776381244</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.8769078224460711</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.253890374329172</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -963,254 +840,138 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; 2,84</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,39; 7,62</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; 6,79</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 8,06</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.7108550771936329</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.606036664628433</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.569039712666348</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.196973714494967</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.766448014194067</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-7,08</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,43</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-8,06</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-12,23</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-51,57%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-28,17%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-65,08%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-73,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-26,18; 5,34</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,94; 8,15</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-25,53; 2,14</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-29,05; -1,36</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 137,62</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 278,02</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 41,34</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.4456036250258755</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.2949338083311</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.704995639982765</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.038477919676807</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1984013160614394</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.876386513535738</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.8034428001363693</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>3.252219118586432</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,52</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,92</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,62%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-5,18%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>33,27%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-7,4%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.591566936102652</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.181298143319406</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.073580430599512</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.71679101884119</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-18,62; 16,57</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-18,69; 15,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-12,12; 19,57</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-22,23; 17,67</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-65,65; 176,05</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-66,79; 157,57</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-64,62; 341,66</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-62,74; 119,57</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.374182394081586</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.049319001343932</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.554395006478007</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.333536968343765</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +979,293 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-24,1%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>8,15%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-2,38%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>7,11%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-6.994913996292635</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-2.775685615668764</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-8.957247089612165</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-11.879151738034</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.5099801195519522</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.3274137784332566</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.6843300725729364</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.7192353624868549</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,87; 1,75</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 3,37</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 2,98</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-3,88; 4,66</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-70,96; 53,08</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-45,08; 116,06</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-57,85; 108,72</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-44,42; 101,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-27.29756511530589</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-12.13676030492267</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-27.37857864942275</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-29.28122570309973</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>5.339693845611723</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.261006889774453</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.759826494623932</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-0.7342120872749616</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1.35644853219947</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>2.850385792959551</v>
+      </c>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="n">
+        <v>0.4235113655446142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>3.765711020736881</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.8969696997188276</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>7.161098754855116</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-1.447762942605044</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.2266060695445445</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.04307739534269894</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.5232920699836224</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.05620020884010311</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-13.9693398164998</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-18.81771226882843</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-10.12967476033584</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-21.31147547421236</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.5958042035297972</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.6570658839163915</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.6005347198303517</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.6172617428001071</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>19.38646087889441</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>17.4871400429849</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>25.38318688464222</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>17.61430586767924</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>2.460669568690076</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.644738500267308</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>4.429765192129379</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>1.256608387927339</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.87308856818677</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2412416009183856</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.02238115540284316</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.6556575340834127</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.3156507578796532</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.05183640682217308</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.004955421039955788</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.105983136745342</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.247439642324737</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.123226495084692</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.566175198016563</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-3.565776616144054</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.7457681418645442</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.4745469426954776</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.5735750360337679</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.4450638142626978</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.273581338807386</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.352732357382817</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.318997397740474</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>4.915036701806109</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.3915095950845677</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.131308398207378</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1.19370938926822</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>1.204907975871804</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1273,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
